--- a/REGULAR/PEREY, AIRENE.xlsx
+++ b/REGULAR/PEREY, AIRENE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0800FDB-D542-43F6-BCB1-8EEEDDC535CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -277,12 +276,18 @@
   </si>
   <si>
     <t>SOLO P(1-0-0)</t>
+  </si>
+  <si>
+    <t>2/6,9/2023</t>
+  </si>
+  <si>
+    <t>2/13,14/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -971,25 +976,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1296,34 +1301,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K147"/>
+  <dimension ref="A2:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A92" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A86" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1349,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1362,7 +1367,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1382,7 +1387,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1390,7 +1395,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1403,7 +1408,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1420,7 +1425,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1464,7 +1469,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>122.974</v>
+        <v>124.224</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1474,12 +1479,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>110.792</v>
+        <v>108.042</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1501,7 +1506,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1521,7 +1526,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1547,7 +1552,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1573,7 +1578,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1599,7 +1604,7 @@
         <v>43217</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1625,7 +1630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -1642,7 +1647,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>47</v>
@@ -1685,7 +1690,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -1711,7 +1716,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43313</v>
       </c>
@@ -1737,7 +1742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -1754,7 +1759,7 @@
         <v>43367</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -1774,7 +1779,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -1800,7 +1805,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43405</v>
       </c>
@@ -1820,7 +1825,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43435</v>
       </c>
@@ -1846,7 +1851,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -1863,7 +1868,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>51</v>
       </c>
@@ -1881,7 +1886,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43466</v>
       </c>
@@ -1907,7 +1912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>55</v>
@@ -1926,7 +1931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>56</v>
@@ -1945,7 +1950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43497</v>
       </c>
@@ -1965,7 +1970,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43525</v>
       </c>
@@ -1991,7 +1996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -2017,7 +2022,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -2037,7 +2042,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -2080,7 +2085,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>47</v>
@@ -2097,7 +2102,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43647</v>
       </c>
@@ -2123,7 +2128,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43678</v>
       </c>
@@ -2149,7 +2154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43709</v>
       </c>
@@ -2175,7 +2180,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -2194,7 +2199,7 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43739</v>
       </c>
@@ -2220,7 +2225,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>45</v>
@@ -2239,7 +2244,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43770</v>
       </c>
@@ -2265,7 +2270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43800</v>
       </c>
@@ -2291,7 +2296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>65</v>
       </c>
@@ -2309,7 +2314,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43831</v>
       </c>
@@ -2333,7 +2338,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>46</v>
@@ -2352,7 +2357,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43862</v>
       </c>
@@ -2378,7 +2383,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43891</v>
       </c>
@@ -2398,7 +2403,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43922</v>
       </c>
@@ -2418,7 +2423,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43952</v>
       </c>
@@ -2438,7 +2443,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43983</v>
       </c>
@@ -2458,7 +2463,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44013</v>
       </c>
@@ -2482,7 +2487,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>45</v>
@@ -2501,7 +2506,7 @@
         <v>44041</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44044</v>
       </c>
@@ -2521,7 +2526,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44075</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44105</v>
       </c>
@@ -2567,7 +2572,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44136</v>
       </c>
@@ -2587,7 +2592,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44166</v>
       </c>
@@ -2611,7 +2616,7 @@
         <v>44176</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>69</v>
@@ -2633,7 +2638,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>71</v>
       </c>
@@ -2651,7 +2656,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44197</v>
       </c>
@@ -2677,7 +2682,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44228</v>
       </c>
@@ -2697,7 +2702,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44256</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44287</v>
       </c>
@@ -2743,7 +2748,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44317</v>
       </c>
@@ -2763,7 +2768,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44348</v>
       </c>
@@ -2789,7 +2794,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
@@ -2806,7 +2811,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44378</v>
       </c>
@@ -2832,7 +2837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44409</v>
       </c>
@@ -2852,7 +2857,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44440</v>
       </c>
@@ -2872,7 +2877,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44470</v>
       </c>
@@ -2898,7 +2903,7 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44501</v>
       </c>
@@ -2918,7 +2923,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44531</v>
       </c>
@@ -2944,7 +2949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>74</v>
       </c>
@@ -2962,7 +2967,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44562</v>
       </c>
@@ -2982,7 +2987,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44593</v>
       </c>
@@ -3002,7 +3007,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44621</v>
       </c>
@@ -3022,7 +3027,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44652</v>
       </c>
@@ -3048,7 +3053,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44682</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>47</v>
@@ -3092,7 +3097,7 @@
         <v>44747</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44713</v>
       </c>
@@ -3112,7 +3117,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44743</v>
       </c>
@@ -3132,7 +3137,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44774</v>
       </c>
@@ -3152,7 +3157,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44805</v>
       </c>
@@ -3172,7 +3177,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44835</v>
       </c>
@@ -3196,7 +3201,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>45</v>
@@ -3218,7 +3223,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>45</v>
@@ -3240,7 +3245,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44866</v>
       </c>
@@ -3264,7 +3269,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44896</v>
       </c>
@@ -3288,31 +3293,25 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>79</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
-      <c r="E92" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>122.974</v>
-      </c>
+      <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H92" s="39"/>
-      <c r="I92" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>110.792</v>
-      </c>
+      <c r="I92" s="9"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44927</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>45</v>
@@ -3358,11 +3357,13 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44958</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
@@ -3373,16 +3374,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H95" s="39"/>
+      <c r="H95" s="39">
+        <v>2</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B96" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
@@ -3391,32 +3396,38 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="39"/>
+      <c r="H96" s="39">
+        <v>2</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3432,9 +3443,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3450,9 +3461,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3468,9 +3479,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3486,9 +3497,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3504,9 +3515,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3522,9 +3533,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3540,9 +3551,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3558,9 +3569,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3576,9 +3587,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3594,9 +3605,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3612,9 +3623,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3630,9 +3641,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3648,9 +3659,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3666,9 +3677,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3684,9 +3695,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3702,9 +3713,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3720,9 +3731,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3738,9 +3749,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3756,9 +3767,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3774,9 +3785,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3792,9 +3803,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3810,9 +3821,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3828,9 +3839,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3846,9 +3857,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3864,9 +3875,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3882,9 +3893,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3900,9 +3911,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3918,9 +3929,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3936,9 +3947,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3954,9 +3965,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3972,9 +3983,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3990,9 +4001,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4008,9 +4019,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4026,9 +4037,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4044,9 +4055,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4062,9 +4073,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4080,9 +4091,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4098,9 +4109,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4116,9 +4127,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4134,9 +4145,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4152,9 +4163,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4170,9 +4181,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4188,9 +4199,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4206,9 +4217,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4224,9 +4235,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4242,9 +4253,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4260,9 +4271,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4278,9 +4289,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4296,21 +4307,39 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="41"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="43"/>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="40">
+        <v>46508</v>
+      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="43"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="15"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="41"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="43"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4327,10 +4356,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4353,28 +4382,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -4387,7 +4416,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4416,7 +4445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>79.474000000000004</v>
       </c>
@@ -4440,17 +4469,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4471,7 +4500,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4498,7 +4527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4524,7 +4553,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4550,7 +4579,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4576,7 +4605,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4602,7 +4631,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4628,7 +4657,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4654,7 +4683,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4680,7 +4709,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4700,7 +4729,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4720,7 +4749,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4740,7 +4769,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4761,7 +4790,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4782,7 +4811,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4803,7 +4832,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4824,7 +4853,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4845,7 +4874,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4866,7 +4895,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4887,7 +4916,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4908,7 +4937,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4929,7 +4958,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4950,7 +4979,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4971,7 +5000,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4992,7 +5021,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5013,7 +5042,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5034,7 +5063,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5055,7 +5084,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5076,7 +5105,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5097,7 +5126,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5118,7 +5147,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5139,7 +5168,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5160,7 +5189,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5169,7 +5198,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5178,7 +5207,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5187,7 +5216,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5196,7 +5225,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5205,7 +5234,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5214,7 +5243,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5223,7 +5252,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5232,7 +5261,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5241,7 +5270,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5250,7 +5279,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5259,7 +5288,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5268,7 +5297,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5277,7 +5306,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5286,7 +5315,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5295,7 +5324,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5304,7 +5333,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5313,7 +5342,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5322,7 +5351,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5331,7 +5360,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5340,7 +5369,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5349,7 +5378,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5358,7 +5387,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5367,7 +5396,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5376,7 +5405,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5385,7 +5414,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5394,7 +5423,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5403,7 +5432,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5412,7 +5441,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5421,7 +5450,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
